--- a/biology/Botanique/Blé_(plante)/Blé_(plante).xlsx
+++ b/biology/Botanique/Blé_(plante)/Blé_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_(plante)</t>
+          <t>Blé_(plante)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle « blé » diverses espèces de plantes herbacées appartenant principalement aux genres Triticum (famille des Poaceae, ou graminées), mais également à d'autres genres par assimilation. On trouve en particulier dans le liste des plantes appelées « blé » dans le langage populaire deux espèces de « pseudo-céréales » : le « blé noir » (ou sarrazin), espèce de la famille des Polygonaceae, et le « blé rouge » (ou amarante réfléchie), famille des Amaranthaceae. « Triticum » est le nom latin du froment ou blé tendre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle « blé » diverses espèces de plantes herbacées appartenant principalement aux genres Triticum (famille des Poaceae, ou graminées), mais également à d'autres genres par assimilation. On trouve en particulier dans le liste des plantes appelées « blé » dans le langage populaire deux espèces de « pseudo-céréales » : le « blé noir » (ou sarrazin), espèce de la famille des Polygonaceae, et le « blé rouge » (ou amarante réfléchie), famille des Amaranthaceae. « Triticum » est le nom latin du froment ou blé tendre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_(plante)</t>
+          <t>Blé_(plante)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,28 +523,30 @@
           <t>Liste des plantes appelées « blé »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Source : base de données globale de l'OEPP[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Source : base de données globale de l'OEPP
 blé à deux  grains, Triticum dicoccon (Poaceae)
 blé amidonnier, Triticum  dicoccon (Poaceae)
 blé à un grain, Triticum  monococcum (Poaceae)
 blé barbu, Triticum  turgidum (Poaceae)
 blé compact, Triticum  compactum (Poaceae)
 blé de Dekkan, Echinochloa  colona (Poaceae)
-Blé de Guinée (sorgho),  Sorghum bicolor (Poaceae)[3]
+Blé de Guinée (sorgho),  Sorghum bicolor (Poaceae)
 blé de Khorasan, Triticum  turanicum (Poaceae)
 blé de Pologne, Triticum  polonicum (Poaceae)
-blé d'Espagne, Zea mays  (Poaceae)[3]
+blé d'Espagne, Zea mays  (Poaceae)
 blé d'été, Triticum  aestivum (Poaceae)
-blé d'Inde, Zea mays  (Poaceae)[3]
+blé d'Inde, Zea mays  (Poaceae)
 blé de Turquie, Zea mays  (Poaceae)
 blé de vache, Melampyrum  arvense (Orobanchaceae)
-blé des Canaries (alpiste), Phalaris canariensis (Poaceae)[3]
+blé des Canaries (alpiste), Phalaris canariensis (Poaceae)
 blé dur, Triticum durum  (Poaceae)
 blé épeautre, Triticum  spelta (Poaceae)
 blé géant, Lolium giganteum  (Poaceae)
-blé indien, Zea mays  (Poaceae)[3]
+blé indien, Zea mays  (Poaceae)
 blé noir, Fagopyrum  esculentum (Polygonaceae)
 blé ordinaire, Triticum  aestivum (Poaceae)
 blé poulard, Triticum  turgidum (Poaceae)
